--- a/Income/TFX_inc.xlsx
+++ b/Income/TFX_inc.xlsx
@@ -2106,16 +2106,16 @@
         <v>0.5207</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5342</v>
+        <v>0.5251</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5409</v>
+        <v>0.5319</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5517</v>
+        <v>0.543</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.5516</v>
+        <v>0.5429</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.5147</v>
@@ -4017,16 +4017,16 @@
         <v>0.2837</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2905</v>
+        <v>0.2901</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2831</v>
+        <v>0.2827</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2982</v>
+        <v>0.2978</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2492</v>
+        <v>0.2488</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2494</v>
